--- a/datos/recibos_quincena_20260131/Jaime Martinez_8-952-1949.xlsx
+++ b/datos/recibos_quincena_20260131/Jaime Martinez_8-952-1949.xlsx
@@ -676,7 +676,7 @@
     <col width="15.109375" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
     <col width="16.5546875" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
     <col width="28" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
-    <col width="28" customWidth="1" style="10" min="5" max="5"/>
+    <col width="7" customWidth="1" style="10" min="5" max="5"/>
     <col width="19.6640625" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -742,7 +742,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Jaime Martinez</t>
+          <t>JAIME MARTINEZ</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -755,7 +755,11 @@
           <t>QUINTAS DEL ESTE</t>
         </is>
       </c>
-      <c r="D4" s="17" t="inlineStr"/>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>0-441974958290</t>
+        </is>
+      </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -763,7 +767,7 @@
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +816,7 @@
       </c>
       <c r="B8" s="15" t="n"/>
       <c r="C8" s="11" t="n">
-        <v>4.41</v>
+        <v>4.51</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
@@ -828,7 +832,7 @@
         </is>
       </c>
       <c r="G8" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="9">
@@ -839,7 +843,7 @@
       </c>
       <c r="B9" s="15" t="n"/>
       <c r="C9" s="11" t="n">
-        <v>35.28</v>
+        <v>36.08</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
@@ -855,7 +859,7 @@
         </is>
       </c>
       <c r="G9" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +870,7 @@
       </c>
       <c r="B10" s="15" t="n"/>
       <c r="C10" s="11" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
@@ -923,7 +927,7 @@
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="13">
@@ -933,10 +937,10 @@
         </is>
       </c>
       <c r="B13" s="11" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
@@ -994,7 +998,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Banco General</t>
+          <t>BANCO GENERAL</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr"/>
@@ -1037,10 +1041,10 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C17" s="30" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
@@ -1096,11 +1100,11 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Banco General</t>
+          <t>BANCO GENERAL</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1109,7 +1113,7 @@
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="21">
@@ -1119,7 +1123,7 @@
     <row r="22" ht="44.4" customHeight="1" s="10">
       <c r="A22" s="31" t="inlineStr">
         <is>
-          <t>Jaime Martinez</t>
+          <t>JAIME MARTINEZ</t>
         </is>
       </c>
       <c r="B22" s="16" t="n"/>
@@ -1195,7 +1199,7 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Jaime Martinez</t>
+          <t>JAIME MARTINEZ</t>
         </is>
       </c>
       <c r="B30" s="11" t="inlineStr">
@@ -1208,7 +1212,11 @@
           <t>QUINTAS DEL ESTE</t>
         </is>
       </c>
-      <c r="D30" s="17" t="inlineStr"/>
+      <c r="D30" s="17" t="inlineStr">
+        <is>
+          <t>0-441974958290</t>
+        </is>
+      </c>
       <c r="E30" s="15" t="n"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
@@ -1216,7 +1224,7 @@
         </is>
       </c>
       <c r="G30" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="31">
@@ -1265,7 +1273,7 @@
       </c>
       <c r="B34" s="15" t="n"/>
       <c r="C34" s="11" t="n">
-        <v>4.41</v>
+        <v>4.51</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
@@ -1281,7 +1289,7 @@
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="35">
@@ -1292,7 +1300,7 @@
       </c>
       <c r="B35" s="15" t="n"/>
       <c r="C35" s="11" t="n">
-        <v>35.28</v>
+        <v>36.08</v>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
@@ -1308,7 +1316,7 @@
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="36">
@@ -1319,7 +1327,7 @@
       </c>
       <c r="B36" s="15" t="n"/>
       <c r="C36" s="11" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
@@ -1376,7 +1384,7 @@
         </is>
       </c>
       <c r="G38" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="39">
@@ -1386,10 +1394,10 @@
         </is>
       </c>
       <c r="B39" s="11" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="D39" s="14" t="inlineStr">
         <is>
@@ -1447,7 +1455,7 @@
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Banco General</t>
+          <t>BANCO GENERAL</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr"/>
@@ -1490,10 +1498,10 @@
         </is>
       </c>
       <c r="B43" s="5" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C43" s="30" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
@@ -1549,11 +1557,11 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Banco General</t>
+          <t>BANCO GENERAL</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -1562,7 +1570,7 @@
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>35.28</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="47">
@@ -1572,7 +1580,7 @@
     <row r="48" ht="44.4" customHeight="1" s="10">
       <c r="A48" s="31" t="inlineStr">
         <is>
-          <t>Jaime Martinez</t>
+          <t>JAIME MARTINEZ</t>
         </is>
       </c>
       <c r="B48" s="16" t="n"/>
